--- a/Detroit - Red Wings Dataset.xlsx
+++ b/Detroit - Red Wings Dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
   <si>
     <t>Division</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>1st</t>
-  </si>
-  <si>
-    <t>—</t>
   </si>
   <si>
     <t>5th</t>
@@ -396,7 +393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -407,7 +406,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -416,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -431,7 +430,7 @@
         <v>1988</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -451,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>28</v>
@@ -468,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>34</v>
@@ -482,7 +481,7 @@
         <v>1991</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -502,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>47</v>
@@ -516,7 +515,7 @@
         <v>1993</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -533,7 +532,7 @@
         <v>1994</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -550,7 +549,7 @@
         <v>1995</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -567,10 +566,10 @@
         <v>1996</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>38</v>
@@ -584,10 +583,10 @@
         <v>1997</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2">
         <v>44</v>
@@ -601,7 +600,7 @@
         <v>1998</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -618,10 +617,10 @@
         <v>1999</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2">
         <v>48</v>
@@ -635,7 +634,7 @@
         <v>2000</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -652,7 +651,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -669,7 +668,7 @@
         <v>2002</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -686,7 +685,7 @@
         <v>2003</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -703,16 +702,16 @@
         <v>2004</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +719,7 @@
         <v>2005</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -737,7 +736,7 @@
         <v>2006</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -754,7 +753,7 @@
         <v>2007</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -771,7 +770,7 @@
         <v>2008</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -788,10 +787,10 @@
         <v>2009</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2">
         <v>44</v>
@@ -805,7 +804,7 @@
         <v>2010</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -822,10 +821,10 @@
         <v>2011</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
         <v>48</v>
@@ -839,10 +838,10 @@
         <v>2012</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>24</v>
@@ -856,10 +855,10 @@
         <v>2013</v>
       </c>
       <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>39</v>
@@ -873,10 +872,10 @@
         <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
         <v>43</v>
@@ -890,10 +889,10 @@
         <v>2015</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2">
         <v>41</v>
@@ -907,10 +906,10 @@
         <v>2016</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
         <v>33</v>
@@ -924,10 +923,10 @@
         <v>2017</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
         <v>30</v>
@@ -941,10 +940,10 @@
         <v>2018</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
         <v>32</v>

--- a/Detroit - Red Wings Dataset.xlsx
+++ b/Detroit - Red Wings Dataset.xlsx
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,38 +422,51 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>38</v>
@@ -461,58 +474,58 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -521,15 +534,15 @@
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -538,32 +551,32 @@
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -572,66 +585,66 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -640,15 +653,15 @@
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -657,15 +670,15 @@
         <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -677,46 +690,46 @@
         <v>48</v>
       </c>
       <c r="E17" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -725,15 +738,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -742,15 +755,15 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -759,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
@@ -767,58 +780,58 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -827,49 +840,49 @@
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -878,77 +891,60 @@
         <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2">
-        <v>32</v>
-      </c>
-      <c r="E33" s="2">
         <v>40</v>
       </c>
     </row>
